--- a/Minecraft Tabelle.xlsx
+++ b/Minecraft Tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Schulzeugs\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31102AB8-F04F-4EE2-B130-202C0E675E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF08303A-627E-4D24-ADE1-BDD69F1E58EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{502D2088-0EFD-437E-BC53-2766267084EE}"/>
   </bookViews>
@@ -201,10 +201,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -523,7 +524,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +737,7 @@
       <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -759,7 +760,7 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -782,7 +783,7 @@
       <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -802,7 +803,7 @@
       <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -816,6 +817,10 @@
     <hyperlink ref="G6" r:id="rId6" xr:uid="{D34DF2E4-DB6B-471A-8E35-4A522096DE3C}"/>
     <hyperlink ref="G7" r:id="rId7" xr:uid="{A2CCC36E-64A7-471C-B4E6-EA3058785B8F}"/>
     <hyperlink ref="G8" r:id="rId8" xr:uid="{2B94D501-34B8-4626-9024-2B066D5E4407}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{EF4602D6-3BB7-49B2-B32A-4D36D7FB4FAD}"/>
+    <hyperlink ref="G9" r:id="rId10" xr:uid="{E9E77268-3DAE-4030-890F-9558E380AD29}"/>
+    <hyperlink ref="G11" r:id="rId11" xr:uid="{A8AF65B6-D2D6-4544-BF1B-65C94DEBF986}"/>
+    <hyperlink ref="G12" r:id="rId12" xr:uid="{6E0B86E2-6B8E-45CF-943C-BA5BBEBFEAA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
